--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanyi\Documents\egyetem\data analysis 1\groupex\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xibei/Documents/2021CEU/DA1/DA1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0131C1-2CFD-429C-8580-EB73B5BBAB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F8EC23-7CE0-E24B-98EE-B7A436DA333E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C2F3E7DA-9E46-4367-8D8B-600078987823}"/>
+    <workbookView xWindow="7640" yWindow="4600" windowWidth="23260" windowHeight="13180" xr2:uid="{C2F3E7DA-9E46-4367-8D8B-600078987823}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -20,30 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>SHOP NAME</t>
-  </si>
-  <si>
-    <t>INNER</t>
-  </si>
-  <si>
-    <t>OUTER</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>DISTRICT</t>
   </si>
@@ -51,25 +33,40 @@
     <t>ID</t>
   </si>
   <si>
-    <t>ADRESS</t>
-  </si>
-  <si>
     <t>STORE TYPE</t>
   </si>
   <si>
-    <t>PRODUCT2 PRICE IN HUF</t>
-  </si>
-  <si>
-    <t>PRODUCT1 PRICE IN HUF</t>
-  </si>
-  <si>
-    <t>STORE SIZE AREA</t>
-  </si>
-  <si>
-    <t>STORE SIZE CASHIER</t>
-  </si>
-  <si>
     <t>BUSINESS QUEUE</t>
+  </si>
+  <si>
+    <t>PART OF THE CITY</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>PRODUCT</t>
+  </si>
+  <si>
+    <t>PRICE IN HUF</t>
+  </si>
+  <si>
+    <t>PERSON</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>DISCOUNTED</t>
+  </si>
+  <si>
+    <t>POSITION OF THE PRODUCT</t>
+  </si>
+  <si>
+    <t>STORE NAME</t>
+  </si>
+  <si>
+    <t>NATIONALITY</t>
   </si>
 </sst>
 </file>
@@ -110,7 +107,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -126,7 +123,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -422,196 +419,216 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB0EA2C-9D27-410B-AAC6-21865F817C84}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
